--- a/docs/Sprints Backlogs/Sprint3 Backlog.xlsx
+++ b/docs/Sprints Backlogs/Sprint3 Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15405" windowHeight="6270" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15405" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint #2" sheetId="6" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -1153,9 +1153,6 @@
     <t>Fim</t>
   </si>
   <si>
-    <t>Elaboração do Documento de Visão e Escopo</t>
-  </si>
-  <si>
     <t>Joelton</t>
   </si>
   <si>
@@ -1165,9 +1162,6 @@
     <t>Felippe</t>
   </si>
   <si>
-    <t>Laisa</t>
-  </si>
-  <si>
     <t>Rodrigo</t>
   </si>
   <si>
@@ -1184,6 +1178,15 @@
   </si>
   <si>
     <t>eBM</t>
+  </si>
+  <si>
+    <t>Caso de Uso Geral</t>
+  </si>
+  <si>
+    <t>Especificação do Caso de Uso Geral</t>
+  </si>
+  <si>
+    <t>Laísa</t>
   </si>
 </sst>
 </file>
@@ -1394,7 +1397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1530,6 +1533,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1548,7 +1554,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1669,7 +1675,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1704857107406077"/>
-          <c:y val="2.6881786835469133E-2"/>
+          <c:y val="2.6881786835469143E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1735,27 +1741,24 @@
             <c:strRef>
               <c:f>'Sprint #2'!$T$2:$AD$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Start</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21/10/2013</c:v>
+                  <c:v>12/11/2013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22/10/2013</c:v>
+                  <c:v>13/11/2013</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23/10/2013</c:v>
+                  <c:v>14/11/2013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24/10/2013</c:v>
+                  <c:v>15/11/2013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25/10/2013</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28/10/2013</c:v>
+                  <c:v>18/11/2013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1770,21 +1773,18 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58333333333333337</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1792,11 +1792,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90875392"/>
-        <c:axId val="90877312"/>
+        <c:axId val="87859968"/>
+        <c:axId val="87861888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90875392"/>
+        <c:axId val="87859968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1828,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41558653408557089"/>
+              <c:x val="0.41558653408557095"/>
               <c:y val="0.93052333586002856"/>
             </c:manualLayout>
           </c:layout>
@@ -1866,7 +1866,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90877312"/>
+        <c:crossAx val="87861888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +1875,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90877312"/>
+        <c:axId val="87861888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1957,7 +1957,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90875392"/>
+        <c:crossAx val="87859968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2372,11 +2372,11 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:BA42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X22" sqref="X22"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2409,11 +2409,11 @@
       <c r="B1" s="36"/>
       <c r="N1" s="38"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="66"/>
-      <c r="S1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="68"/>
     </row>
     <row r="2" spans="1:53" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="35" t="s">
@@ -2477,28 +2477,25 @@
         <v>21</v>
       </c>
       <c r="U2" s="18">
-        <v>41568</v>
+        <v>41590</v>
       </c>
       <c r="V2" s="18">
         <f>IF(AND(WEEKDAY(U2) &gt; 0,WEEKDAY(U2) &lt; 6), U2+1, U2+3)</f>
-        <v>41569</v>
+        <v>41591</v>
       </c>
       <c r="W2" s="46">
         <f t="shared" ref="W2:X2" si="0">IF(AND(WEEKDAY(V2) &gt; 0,WEEKDAY(V2) &lt; 6), V2+1, V2+3)</f>
-        <v>41570</v>
+        <v>41592</v>
       </c>
       <c r="X2" s="18">
         <f t="shared" si="0"/>
-        <v>41571</v>
+        <v>41593</v>
       </c>
       <c r="Y2" s="18">
         <f t="shared" ref="Y2" si="1">IF(AND(WEEKDAY(X2) &gt; 0,WEEKDAY(X2) &lt; 6), X2+1, X2+3)</f>
-        <v>41572</v>
-      </c>
-      <c r="Z2" s="18">
-        <f t="shared" ref="Z2" si="2">IF(AND(WEEKDAY(Y2) &gt; 0,WEEKDAY(Y2) &lt; 6), Y2+1, Y2+3)</f>
-        <v>41575</v>
-      </c>
+        <v>41596</v>
+      </c>
+      <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
       <c r="AB2" s="18"/>
       <c r="AC2" s="18"/>
@@ -2527,73 +2524,98 @@
       <c r="AZ2" s="18"/>
       <c r="BA2" s="18"/>
     </row>
-    <row r="3" spans="1:53" ht="38.25">
+    <row r="3" spans="1:53">
       <c r="A3" s="45" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="28"/>
-      <c r="D3" s="71">
-        <v>41568</v>
-      </c>
-      <c r="E3" s="71">
-        <v>41575</v>
+      <c r="D3" s="65">
+        <v>41590</v>
+      </c>
+      <c r="E3" s="65">
+        <v>41592</v>
       </c>
       <c r="F3" s="59"/>
       <c r="G3" s="60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="60">
         <v>9</v>
       </c>
       <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
         <v>52</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="3" t="str">
-        <f t="shared" ref="Q3:Q19" si="3">IF(P3&lt;&gt;"",P3-O3,"")</f>
+        <f t="shared" ref="Q3:Q19" si="2">IF(P3&lt;&gt;"",P3-O3,"")</f>
         <v/>
       </c>
       <c r="R3" s="3">
         <f>IF(P3="",O3,P3)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S19" si="4">R3-SUM(U3:AI3)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53">
-      <c r="A4" s="45"/>
+        <f t="shared" ref="S3:S19" si="3">R3-SUM(U3:AI3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" ht="25.5">
+      <c r="A4" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="B4" s="44"/>
       <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="72">
+        <v>41592</v>
+      </c>
+      <c r="E4" s="72">
+        <v>41596</v>
+      </c>
       <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="G4" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="60">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
       <c r="Q4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" ref="R4:R19" si="4">IF(P4="",O4,P4)</f>
+        <v>5</v>
+      </c>
+      <c r="S4" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R4" s="3">
-        <f t="shared" ref="R4:R19" si="5">IF(P4="",O4,P4)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -2606,15 +2628,15 @@
       <c r="H5" s="60"/>
       <c r="J5" s="41"/>
       <c r="Q5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R5" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X5" s="53"/>
@@ -2630,15 +2652,15 @@
       <c r="H6" s="60"/>
       <c r="J6" s="41"/>
       <c r="Q6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R6" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2652,15 +2674,15 @@
       <c r="H7" s="60"/>
       <c r="J7" s="41"/>
       <c r="Q7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R7" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2675,15 +2697,15 @@
       <c r="J8" s="41"/>
       <c r="N8" s="50"/>
       <c r="Q8" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R8" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2698,15 +2720,15 @@
       <c r="J9" s="41"/>
       <c r="N9" s="50"/>
       <c r="Q9" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R9" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2721,15 +2743,15 @@
       <c r="J10" s="41"/>
       <c r="N10" s="50"/>
       <c r="Q10" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R10" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R10" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2743,15 +2765,15 @@
       <c r="H11" s="60"/>
       <c r="J11" s="41"/>
       <c r="Q11" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R11" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2765,15 +2787,15 @@
       <c r="H12" s="60"/>
       <c r="J12" s="41"/>
       <c r="Q12" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2788,15 +2810,15 @@
       <c r="J13" s="41"/>
       <c r="N13" s="50"/>
       <c r="Q13" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R13" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R13" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2811,15 +2833,15 @@
       <c r="J14" s="41"/>
       <c r="N14" s="50"/>
       <c r="Q14" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R14" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R14" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2834,15 +2856,15 @@
       <c r="J15" s="41"/>
       <c r="N15" s="50"/>
       <c r="Q15" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2857,15 +2879,15 @@
       <c r="J16" s="41"/>
       <c r="N16" s="50"/>
       <c r="Q16" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R16" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R16" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2880,15 +2902,15 @@
       <c r="J17" s="41"/>
       <c r="N17" s="50"/>
       <c r="Q17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2903,15 +2925,15 @@
       <c r="J18" s="41"/>
       <c r="N18" s="50"/>
       <c r="Q18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R18" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R18" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2933,15 +2955,15 @@
       <c r="O19" s="5"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R19" s="63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="64">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R19" s="63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="64">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T19" s="5"/>
@@ -2981,7 +3003,7 @@
       </c>
       <c r="O20">
         <f>SUM(O3:O19)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="8">
@@ -2990,11 +3012,11 @@
       </c>
       <c r="R20" s="8">
         <f>SUM(R3:R19)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S20" s="2">
         <f>SUM(S3:S19)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T20" s="8"/>
       <c r="U20"/>
@@ -3037,28 +3059,25 @@
       </c>
       <c r="O21" s="7">
         <f>R20</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S21" s="13" t="s">
         <v>28</v>
       </c>
       <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21">
         <v>1</v>
       </c>
-      <c r="V21">
-        <v>0.5</v>
-      </c>
       <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21" s="51">
         <v>1</v>
       </c>
-      <c r="X21" s="51">
-        <v>1.5</v>
-      </c>
       <c r="Y21" s="51">
-        <v>1</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:53">
@@ -3075,27 +3094,23 @@
       <c r="T22" s="25"/>
       <c r="U22">
         <f>T22+U21</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V22">
         <f>U22+V21</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="W22">
         <f>V22+W21</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="X22">
-        <f t="shared" ref="X22:AP22" si="6">W22+X21</f>
-        <v>4</v>
+        <f t="shared" ref="X22:Z22" si="5">W22+X21</f>
+        <v>6</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="Z22">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:53">
@@ -3112,15 +3127,15 @@
       <c r="T23" s="25"/>
       <c r="U23">
         <f>$O20-U22+SUM($T26:U26)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V23">
         <f>$O20-V22+SUM($T26:V26)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="W23">
         <f>$O20-W22+SUM($T26:W26)</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X23">
         <f>$O20-X22+SUM($T26:X26)</f>
@@ -3128,10 +3143,6 @@
       </c>
       <c r="Y23">
         <f>$O20-Y22+SUM($T26:Y26)</f>
-        <v>1</v>
-      </c>
-      <c r="Z23">
-        <f>$O20-Z22+SUM($T26:Z26)</f>
         <v>0</v>
       </c>
     </row>
@@ -3145,29 +3156,26 @@
         <v>1</v>
       </c>
       <c r="U24" s="11">
-        <f t="shared" ref="U24:AP24" ca="1" si="7">IF(U2 &lt; $S$30, U23/$O$21, NA())</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="U24:Z24" ca="1" si="6">IF(U2 &lt; $S$30, U23/$O$21, NA())</f>
+        <v>0.75</v>
       </c>
       <c r="V24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.75</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.625</v>
       </c>
       <c r="W24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.58333333333333337</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.375</v>
       </c>
       <c r="X24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.25</v>
       </c>
       <c r="Y24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="Z24" s="11">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="11"/>
       <c r="AA24" s="11"/>
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
@@ -3191,7 +3199,7 @@
       </c>
       <c r="O25">
         <f>S20</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T25" s="25"/>
       <c r="U25" s="12"/>
@@ -3317,7 +3325,7 @@
       </c>
       <c r="O29" s="22">
         <f>((O25/O28)/8)/0.8</f>
-        <v>0.46875</v>
+        <v>0.625</v>
       </c>
       <c r="R29" s="14" t="s">
         <v>30</v>
@@ -3333,7 +3341,7 @@
       </c>
       <c r="S30" s="39">
         <f ca="1">NOW()</f>
-        <v>41675.826051041666</v>
+        <v>41675.937754398146</v>
       </c>
     </row>
     <row r="32" spans="1:53">
@@ -3411,7 +3419,7 @@
   <sheetPr codeName="Plan2"/>
   <dimension ref="P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -3440,7 +3448,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3488,16 +3496,16 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3511,13 +3519,13 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
       <c r="F3" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="40"/>
     </row>
@@ -3532,7 +3540,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3540,7 +3548,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3548,7 +3556,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3659,11 +3667,11 @@
     <row r="1" spans="1:51" s="21" customFormat="1">
       <c r="K1" s="33"/>
       <c r="L1" s="17"/>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="71"/>
     </row>
     <row r="2" spans="1:51" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="15" t="s">

--- a/docs/Sprints Backlogs/Sprint3 Backlog.xlsx
+++ b/docs/Sprints Backlogs/Sprint3 Backlog.xlsx
@@ -29,7 +29,7 @@
     <definedName name="Team">Lookups!$F$2:$F$7</definedName>
     <definedName name="Type">Lookups!$E$2:$E$3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -1536,6 +1536,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1553,9 +1556,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1665,7 +1665,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Sprint 1 - eBM - EM 28/10/2013 as 20:00h.</a:t>
+              <a:t>Sprint 3 - eBM - EM 19/11/2013 as 20:00h.</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1675,7 +1675,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1704857107406077"/>
-          <c:y val="2.6881786835469143E-2"/>
+          <c:y val="2.6881786835469157E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -1792,11 +1792,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="87859968"/>
-        <c:axId val="87861888"/>
+        <c:axId val="82359040"/>
+        <c:axId val="82360960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87859968"/>
+        <c:axId val="82359040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1828,7 +1828,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41558653408557095"/>
+              <c:x val="0.41558653408557106"/>
               <c:y val="0.93052333586002856"/>
             </c:manualLayout>
           </c:layout>
@@ -1866,7 +1866,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87861888"/>
+        <c:crossAx val="82360960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1875,7 +1875,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87861888"/>
+        <c:axId val="82360960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1957,7 +1957,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87859968"/>
+        <c:crossAx val="82359040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2373,10 +2373,10 @@
   <dimension ref="A1:BA42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2409,11 +2409,11 @@
       <c r="B1" s="36"/>
       <c r="N1" s="38"/>
       <c r="P1" s="38"/>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="67"/>
-      <c r="S1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="69"/>
     </row>
     <row r="2" spans="1:53" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="35" t="s">
@@ -2577,10 +2577,10 @@
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="52"/>
-      <c r="D4" s="72">
+      <c r="D4" s="66">
         <v>41592</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="66">
         <v>41596</v>
       </c>
       <c r="F4" s="59"/>
@@ -3105,7 +3105,7 @@
         <v>5</v>
       </c>
       <c r="X22">
-        <f t="shared" ref="X22:Z22" si="5">W22+X21</f>
+        <f t="shared" ref="X22:Y22" si="5">W22+X21</f>
         <v>6</v>
       </c>
       <c r="Y22">
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="U24" s="11">
-        <f t="shared" ref="U24:Z24" ca="1" si="6">IF(U2 &lt; $S$30, U23/$O$21, NA())</f>
+        <f t="shared" ref="U24:Y24" ca="1" si="6">IF(U2 &lt; $S$30, U23/$O$21, NA())</f>
         <v>0.75</v>
       </c>
       <c r="V24" s="11">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="S30" s="39">
         <f ca="1">NOW()</f>
-        <v>41675.937754398146</v>
+        <v>41688.940893749997</v>
       </c>
     </row>
     <row r="32" spans="1:53">
@@ -3420,7 +3420,7 @@
   <dimension ref="P42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3667,11 +3667,11 @@
     <row r="1" spans="1:51" s="21" customFormat="1">
       <c r="K1" s="33"/>
       <c r="L1" s="17"/>
-      <c r="O1" s="69" t="s">
+      <c r="O1" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="72"/>
     </row>
     <row r="2" spans="1:51" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="15" t="s">
